--- a/DataFolder/Rsponse For the 360 degree questions.xlsx
+++ b/DataFolder/Rsponse For the 360 degree questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USRInfotech\10-07-2024_Automation\USRLocalization\DataFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4E1AA1B-0870-43D2-A3B2-3FB3DE01F06F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC5AC8D-90DF-4DBA-AD10-F27FB50366B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{FE5F421C-29A2-4C07-A26F-863D3E975606}"/>
   </bookViews>
@@ -25,16 +25,163 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Enter the Option Number</t>
+    <r>
+      <t xml:space="preserve">Enter the Option Number for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> question</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter the Option Number for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> question</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter the Option Number for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> question</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter the Option Number for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> question</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter the Option Number for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> question</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter the Option Number for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> question</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +192,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -394,58 +548,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295747A2-A7AF-4B6D-88DD-CD462130FAA0}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="4" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataFolder/Rsponse For the 360 degree questions.xlsx
+++ b/DataFolder/Rsponse For the 360 degree questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USRInfotech\10-07-2024_Automation\USRLocalization\DataFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC5AC8D-90DF-4DBA-AD10-F27FB50366B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861926F5-47CC-4E6C-9CEA-D04E3E7F1023}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{FE5F421C-29A2-4C07-A26F-863D3E975606}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <r>
       <t xml:space="preserve">Enter the Option Number for </t>
@@ -164,6 +164,31 @@
         <scheme val="minor"/>
       </rPr>
       <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> question</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Enter the Option Number for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
     </r>
     <r>
       <rPr>
@@ -548,22 +573,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295747A2-A7AF-4B6D-88DD-CD462130FAA0}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
-    <col min="4" max="5" width="39.85546875" customWidth="1"/>
-    <col min="6" max="6" width="39" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -582,8 +609,11 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -602,8 +632,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -623,7 +656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -640,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -657,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -674,7 +707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -691,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -708,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -725,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -742,7 +775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -759,7 +792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -773,7 +806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -784,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -792,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>1</v>
       </c>
